--- a/4B_25-25.xlsx
+++ b/4B_25-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msevgob-my.sharepoint.com/personal/elpidio_mendez_msev_gob_mx/Documents/Documents/Mendez1/JTB_2025-2025/lista editada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{B1414C30-2805-4816-8A8D-0063A79BCFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F377B1B0-2B90-4D37-AAFE-E7503EBDA31B}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{B1414C30-2805-4816-8A8D-0063A79BCFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157EB147-201A-465B-B457-CC8C9285F3FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="L20" s="109">
         <f>CALIF_ANV!AX11</f>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="M20" s="110">
         <f>CALIF_ANV!AX48</f>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="O20" s="63">
         <f>IF(AVERAGE(L20:N20)&gt;0, TRUNC(AVERAGE(L20:N20),1),"")</f>
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -8224,7 +8224,7 @@
       <c r="K21" s="108"/>
       <c r="L21" s="109">
         <f>CALIF_ANV!AX12</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M21" s="110" t="str">
         <f>CALIF_ANV!AX49</f>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="O21" s="63">
         <f t="shared" ref="O21:O69" si="6">IF(AVERAGE(L21:N21)&gt;0, TRUNC(AVERAGE(L21:N21),1),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -8328,7 +8328,7 @@
       <c r="K23" s="108"/>
       <c r="L23" s="109">
         <f>CALIF_ANV!AX14</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M23" s="110" t="str">
         <f>CALIF_ANV!AX51</f>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="O23" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -8380,7 +8380,7 @@
       <c r="K24" s="108"/>
       <c r="L24" s="109">
         <f>CALIF_ANV!AX15</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M24" s="110">
         <f>CALIF_ANV!AX52</f>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="O24" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="L26" s="109">
         <f>CALIF_ANV!AX17</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M26" s="110">
         <f>CALIF_ANV!AX54</f>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="O26" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -8542,7 +8542,7 @@
       <c r="K27" s="108"/>
       <c r="L27" s="109">
         <f>CALIF_ANV!AX18</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" s="110" t="str">
         <f>CALIF_ANV!AX55</f>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="O27" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -8698,7 +8698,7 @@
       <c r="K30" s="108"/>
       <c r="L30" s="109">
         <f>CALIF_ANV!AX21</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M30" s="110" t="str">
         <f>CALIF_ANV!AX58</f>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="O30" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
       <c r="K31" s="108"/>
       <c r="L31" s="109">
         <f>CALIF_ANV!AX22</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M31" s="110" t="str">
         <f>CALIF_ANV!AX59</f>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="O31" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -8802,7 +8802,7 @@
       <c r="K32" s="108"/>
       <c r="L32" s="109">
         <f>CALIF_ANV!AX23</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M32" s="110" t="str">
         <f>CALIF_ANV!AX60</f>
@@ -8814,7 +8814,7 @@
       </c>
       <c r="O32" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -9010,7 +9010,7 @@
       <c r="K36" s="108"/>
       <c r="L36" s="109">
         <f>CALIF_ANV!AX27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M36" s="110" t="str">
         <f>CALIF_ANV!AX64</f>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="O36" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -9062,7 +9062,7 @@
       <c r="K37" s="108"/>
       <c r="L37" s="109">
         <f>CALIF_ANV!AX28</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M37" s="110" t="str">
         <f>CALIF_ANV!AX65</f>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="O37" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -9166,7 +9166,7 @@
       <c r="K39" s="108"/>
       <c r="L39" s="109">
         <f>CALIF_ANV!AX30</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M39" s="110" t="str">
         <f>CALIF_ANV!AX67</f>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="O39" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -9218,7 +9218,7 @@
       <c r="K40" s="108"/>
       <c r="L40" s="109">
         <f>CALIF_ANV!AX31</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M40" s="110" t="str">
         <f>CALIF_ANV!AX68</f>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="O40" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -9270,7 +9270,7 @@
       <c r="K41" s="108"/>
       <c r="L41" s="109">
         <f>CALIF_ANV!AX32</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M41" s="110" t="str">
         <f>CALIF_ANV!AX69</f>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="O41" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -9322,7 +9322,7 @@
       <c r="K42" s="108"/>
       <c r="L42" s="109">
         <f>CALIF_ANV!AX33</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M42" s="110" t="str">
         <f>CALIF_ANV!AX70</f>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O42" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="L45" s="63">
         <f>CALIF_REV!AX4</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M45" s="63">
         <f>CALIF_REV!AX39</f>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="O45" s="63">
         <f t="shared" si="6"/>
-        <v>7.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -9536,7 +9536,7 @@
       <c r="K46" s="108"/>
       <c r="L46" s="63">
         <f>CALIF_REV!AX5</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M46" s="63" t="str">
         <f>CALIF_REV!AX40</f>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="O46" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -9692,7 +9692,7 @@
       <c r="K49" s="108"/>
       <c r="L49" s="63">
         <f>CALIF_REV!AX8</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M49" s="63" t="str">
         <f>CALIF_REV!AX43</f>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="O49" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -9744,7 +9744,7 @@
       <c r="K50" s="108"/>
       <c r="L50" s="63">
         <f>CALIF_REV!AX9</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M50" s="63" t="str">
         <f>CALIF_REV!AX44</f>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="O50" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -9796,7 +9796,7 @@
       <c r="K51" s="108"/>
       <c r="L51" s="63">
         <f>CALIF_REV!AX10</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M51" s="63" t="str">
         <f>CALIF_REV!AX45</f>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="O51" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -9900,7 +9900,7 @@
       <c r="K53" s="108"/>
       <c r="L53" s="63">
         <f>CALIF_REV!AX12</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M53" s="63" t="str">
         <f>CALIF_REV!AX47</f>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="O53" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -9952,7 +9952,7 @@
       <c r="K54" s="108"/>
       <c r="L54" s="63">
         <f>CALIF_REV!AX13</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M54" s="63" t="str">
         <f>CALIF_REV!AX48</f>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="O54" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -10056,7 +10056,7 @@
       <c r="K56" s="108"/>
       <c r="L56" s="63">
         <f>CALIF_REV!AX15</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M56" s="63" t="str">
         <f>CALIF_REV!AX50</f>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="O56" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -10108,7 +10108,7 @@
       <c r="K57" s="108"/>
       <c r="L57" s="63">
         <f>CALIF_REV!AX16</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M57" s="63" t="str">
         <f>CALIF_REV!AX51</f>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="O57" s="63">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -10855,7 +10855,7 @@
   </sheetPr>
   <dimension ref="A1:BV166"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AV14" sqref="AV14"/>
     </sheetView>
   </sheetViews>
@@ -30724,8 +30724,8 @@
   </sheetPr>
   <dimension ref="A1:BG116"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AI38" sqref="AI38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31702,7 +31702,9 @@
         <v>25</v>
       </c>
       <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
+      <c r="AI13" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ13" s="116"/>
       <c r="AK13" s="116"/>
       <c r="AL13" s="116"/>
@@ -31724,12 +31726,12 @@
       <c r="BB13" s="116"/>
       <c r="BC13" s="312" t="str">
         <f>IF(B13="","",CONCATENATE(IF(B13="","",COUNTIF(AD13:BB13,"&gt;0"))," / ",BF$8))</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD13" s="313"/>
       <c r="BE13" s="312">
         <f>IF(B13="","",SUM(AD13:BB13))</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF13" s="313"/>
       <c r="BG13" s="76" t="str">
@@ -31781,7 +31783,9 @@
         <v>25</v>
       </c>
       <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
+      <c r="AI14" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ14" s="117"/>
       <c r="AK14" s="117"/>
       <c r="AL14" s="117"/>
@@ -31803,12 +31807,12 @@
       <c r="BB14" s="117"/>
       <c r="BC14" s="310" t="str">
         <f t="shared" ref="BC14:BC37" si="0">IF(B14="","",CONCATENATE(IF(B14="","",COUNTIF(AD14:BB14,"&gt;0"))," / ",BF$8))</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD14" s="311"/>
       <c r="BE14" s="310">
         <f t="shared" ref="BE14:BE37" si="1">IF(B14="","",SUM(AD14:BB14))</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF14" s="311"/>
       <c r="BG14" s="76" t="str">
@@ -31856,9 +31860,13 @@
         <v>20</v>
       </c>
       <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
+      <c r="AG15" s="116">
+        <v>20</v>
+      </c>
       <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
+      <c r="AI15" s="116">
+        <v>0</v>
+      </c>
       <c r="AJ15" s="116"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="116"/>
@@ -31880,12 +31888,12 @@
       <c r="BB15" s="116"/>
       <c r="BC15" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="BD15" s="313"/>
       <c r="BE15" s="312">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BF15" s="313"/>
       <c r="BG15" s="76" t="str">
@@ -31933,9 +31941,13 @@
         <v>20</v>
       </c>
       <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
+      <c r="AG16" s="117">
+        <v>20</v>
+      </c>
       <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
+      <c r="AI16" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ16" s="117"/>
       <c r="AK16" s="117"/>
       <c r="AL16" s="117"/>
@@ -31957,12 +31969,12 @@
       <c r="BB16" s="117"/>
       <c r="BC16" s="310" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD16" s="311"/>
       <c r="BE16" s="310">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF16" s="311"/>
       <c r="BG16" s="76" t="str">
@@ -32010,7 +32022,9 @@
         <v>20</v>
       </c>
       <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
+      <c r="AG17" s="116">
+        <v>25</v>
+      </c>
       <c r="AH17" s="116"/>
       <c r="AI17" s="116">
         <v>25</v>
@@ -32036,12 +32050,12 @@
       <c r="BB17" s="116"/>
       <c r="BC17" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD17" s="313"/>
       <c r="BE17" s="312">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF17" s="313"/>
       <c r="BG17" s="76" t="str">
@@ -32089,9 +32103,13 @@
         <v>20</v>
       </c>
       <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
+      <c r="AG18" s="117">
+        <v>0</v>
+      </c>
       <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
+      <c r="AI18" s="117">
+        <v>0</v>
+      </c>
       <c r="AJ18" s="117"/>
       <c r="AK18" s="117"/>
       <c r="AL18" s="117"/>
@@ -32166,9 +32184,13 @@
         <v>20</v>
       </c>
       <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
+      <c r="AG19" s="116">
+        <v>25</v>
+      </c>
       <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
+      <c r="AI19" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ19" s="116"/>
       <c r="AK19" s="116"/>
       <c r="AL19" s="116"/>
@@ -32190,12 +32212,12 @@
       <c r="BB19" s="116"/>
       <c r="BC19" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD19" s="313"/>
       <c r="BE19" s="312">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF19" s="313"/>
       <c r="BG19" s="76" t="str">
@@ -32243,9 +32265,13 @@
         <v>20</v>
       </c>
       <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
+      <c r="AG20" s="117">
+        <v>25</v>
+      </c>
       <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
+      <c r="AI20" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ20" s="117"/>
       <c r="AK20" s="117"/>
       <c r="AL20" s="117"/>
@@ -32267,12 +32293,12 @@
       <c r="BB20" s="117"/>
       <c r="BC20" s="310" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD20" s="311"/>
       <c r="BE20" s="310">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF20" s="311"/>
       <c r="BG20" s="76" t="str">
@@ -32320,9 +32346,13 @@
         <v>20</v>
       </c>
       <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
+      <c r="AG21" s="116">
+        <v>0</v>
+      </c>
       <c r="AH21" s="116"/>
-      <c r="AI21" s="116"/>
+      <c r="AI21" s="116">
+        <v>0</v>
+      </c>
       <c r="AJ21" s="116"/>
       <c r="AK21" s="116"/>
       <c r="AL21" s="116"/>
@@ -32482,7 +32512,9 @@
         <v>25</v>
       </c>
       <c r="AH23" s="116"/>
-      <c r="AI23" s="116"/>
+      <c r="AI23" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ23" s="116"/>
       <c r="AK23" s="116"/>
       <c r="AL23" s="116"/>
@@ -32504,12 +32536,12 @@
       <c r="BB23" s="116"/>
       <c r="BC23" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD23" s="313"/>
       <c r="BE23" s="312">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF23" s="313"/>
       <c r="BG23" s="76" t="str">
@@ -32561,7 +32593,9 @@
         <v>25</v>
       </c>
       <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
+      <c r="AI24" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ24" s="117"/>
       <c r="AK24" s="117"/>
       <c r="AL24" s="117"/>
@@ -32583,12 +32617,12 @@
       <c r="BB24" s="117"/>
       <c r="BC24" s="310" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD24" s="311"/>
       <c r="BE24" s="310">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF24" s="311"/>
       <c r="BG24" s="76" t="str">
@@ -32636,9 +32670,13 @@
         <v>20</v>
       </c>
       <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
+      <c r="AG25" s="116">
+        <v>20</v>
+      </c>
       <c r="AH25" s="116"/>
-      <c r="AI25" s="116"/>
+      <c r="AI25" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ25" s="116"/>
       <c r="AK25" s="116"/>
       <c r="AL25" s="116"/>
@@ -32660,12 +32698,12 @@
       <c r="BB25" s="116"/>
       <c r="BC25" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD25" s="313"/>
       <c r="BE25" s="312">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF25" s="313"/>
       <c r="BG25" s="76" t="str">
@@ -32713,9 +32751,13 @@
         <v>20</v>
       </c>
       <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
+      <c r="AG26" s="117">
+        <v>0</v>
+      </c>
       <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
+      <c r="AI26" s="117">
+        <v>0</v>
+      </c>
       <c r="AJ26" s="117"/>
       <c r="AK26" s="117"/>
       <c r="AL26" s="117"/>
@@ -32956,7 +32998,9 @@
         <v>25</v>
       </c>
       <c r="AH29" s="116"/>
-      <c r="AI29" s="116"/>
+      <c r="AI29" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ29" s="116"/>
       <c r="AK29" s="116"/>
       <c r="AL29" s="116"/>
@@ -32978,12 +33022,12 @@
       <c r="BB29" s="116"/>
       <c r="BC29" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD29" s="313"/>
       <c r="BE29" s="312">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF29" s="313"/>
       <c r="BG29" s="76" t="str">
@@ -33031,9 +33075,13 @@
         <v>20</v>
       </c>
       <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
+      <c r="AG30" s="117">
+        <v>25</v>
+      </c>
       <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
+      <c r="AI30" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ30" s="117"/>
       <c r="AK30" s="117"/>
       <c r="AL30" s="117"/>
@@ -33055,12 +33103,12 @@
       <c r="BB30" s="117"/>
       <c r="BC30" s="310" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD30" s="311"/>
       <c r="BE30" s="310">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF30" s="311"/>
       <c r="BG30" s="76" t="str">
@@ -33108,9 +33156,13 @@
         <v>20</v>
       </c>
       <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
+      <c r="AG31" s="116">
+        <v>0</v>
+      </c>
       <c r="AH31" s="116"/>
-      <c r="AI31" s="116"/>
+      <c r="AI31" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ31" s="116"/>
       <c r="AK31" s="116"/>
       <c r="AL31" s="116"/>
@@ -33132,12 +33184,12 @@
       <c r="BB31" s="116"/>
       <c r="BC31" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="BD31" s="313"/>
       <c r="BE31" s="312">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="BF31" s="313"/>
       <c r="BG31" s="76" t="str">
@@ -33185,9 +33237,13 @@
         <v>20</v>
       </c>
       <c r="AF32" s="117"/>
-      <c r="AG32" s="117"/>
+      <c r="AG32" s="117">
+        <v>20</v>
+      </c>
       <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
+      <c r="AI32" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ32" s="117"/>
       <c r="AK32" s="117"/>
       <c r="AL32" s="117"/>
@@ -33209,12 +33265,12 @@
       <c r="BB32" s="117"/>
       <c r="BC32" s="310" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD32" s="311"/>
       <c r="BE32" s="310">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF32" s="311"/>
       <c r="BG32" s="76" t="str">
@@ -33266,7 +33322,9 @@
         <v>25</v>
       </c>
       <c r="AH33" s="116"/>
-      <c r="AI33" s="116"/>
+      <c r="AI33" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ33" s="116"/>
       <c r="AK33" s="116"/>
       <c r="AL33" s="116"/>
@@ -33288,12 +33346,12 @@
       <c r="BB33" s="116"/>
       <c r="BC33" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD33" s="313"/>
       <c r="BE33" s="312">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF33" s="313"/>
       <c r="BG33" s="76" t="str">
@@ -33345,7 +33403,9 @@
         <v>25</v>
       </c>
       <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
+      <c r="AI34" s="117">
+        <v>25</v>
+      </c>
       <c r="AJ34" s="117"/>
       <c r="AK34" s="117"/>
       <c r="AL34" s="117"/>
@@ -33367,12 +33427,12 @@
       <c r="BB34" s="117"/>
       <c r="BC34" s="310" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD34" s="311"/>
       <c r="BE34" s="310">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF34" s="311"/>
       <c r="BG34" s="76" t="str">
@@ -33424,7 +33484,9 @@
         <v>25</v>
       </c>
       <c r="AH35" s="116"/>
-      <c r="AI35" s="116"/>
+      <c r="AI35" s="116">
+        <v>25</v>
+      </c>
       <c r="AJ35" s="116"/>
       <c r="AK35" s="116"/>
       <c r="AL35" s="116"/>
@@ -33446,12 +33508,12 @@
       <c r="BB35" s="116"/>
       <c r="BC35" s="312" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD35" s="313"/>
       <c r="BE35" s="312">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF35" s="313"/>
       <c r="BG35" s="76" t="str">
@@ -33580,9 +33642,13 @@
         <v>20</v>
       </c>
       <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
+      <c r="AG37" s="116">
+        <v>0</v>
+      </c>
       <c r="AH37" s="116"/>
-      <c r="AI37" s="116"/>
+      <c r="AI37" s="116">
+        <v>0</v>
+      </c>
       <c r="AJ37" s="116"/>
       <c r="AK37" s="116"/>
       <c r="AL37" s="116"/>
@@ -39844,8 +39910,8 @@
   </sheetPr>
   <dimension ref="A1:BG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40452,9 +40518,13 @@
         <v>20</v>
       </c>
       <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
+      <c r="AG6" s="58">
+        <v>25</v>
+      </c>
       <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
+      <c r="AI6" s="58">
+        <v>25</v>
+      </c>
       <c r="AJ6" s="58"/>
       <c r="AK6" s="58"/>
       <c r="AL6" s="58"/>
@@ -40476,12 +40546,12 @@
       <c r="BB6" s="58"/>
       <c r="BC6" s="361" t="str">
         <f>IF(B6="","",CONCATENATE(IF(B6="","",COUNTIF(AD6:BB6,"&gt;0"))," / ",BF$1))</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD6" s="362"/>
       <c r="BE6" s="361">
         <f>IF(B6="","",SUM(AD6:BB6))</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF6" s="362"/>
       <c r="BG6" s="46" t="str">
@@ -40529,9 +40599,13 @@
         <v>20</v>
       </c>
       <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
+      <c r="AG7" s="59">
+        <v>20</v>
+      </c>
       <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
+      <c r="AI7" s="59">
+        <v>25</v>
+      </c>
       <c r="AJ7" s="59"/>
       <c r="AK7" s="59"/>
       <c r="AL7" s="59"/>
@@ -40553,12 +40627,12 @@
       <c r="BB7" s="59"/>
       <c r="BC7" s="375" t="str">
         <f t="shared" ref="BC7:BC30" si="0">IF(B7="","",CONCATENATE(IF(B7="","",COUNTIF(AD7:BB7,"&gt;0"))," / ",BF$1))</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD7" s="376"/>
       <c r="BE7" s="375">
         <f t="shared" ref="BE7:BE30" si="1">IF(B7="","",SUM(AD7:BB7))</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF7" s="376"/>
       <c r="BG7" s="46" t="str">
@@ -40606,9 +40680,13 @@
         <v>20</v>
       </c>
       <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
+      <c r="AG8" s="58">
+        <v>0</v>
+      </c>
       <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
+      <c r="AI8" s="58">
+        <v>0</v>
+      </c>
       <c r="AJ8" s="58"/>
       <c r="AK8" s="58"/>
       <c r="AL8" s="58"/>
@@ -40764,9 +40842,13 @@
         <v>20</v>
       </c>
       <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
+      <c r="AG10" s="58">
+        <v>25</v>
+      </c>
       <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
+      <c r="AI10" s="58">
+        <v>25</v>
+      </c>
       <c r="AJ10" s="58"/>
       <c r="AK10" s="58"/>
       <c r="AL10" s="58"/>
@@ -40788,12 +40870,12 @@
       <c r="BB10" s="58"/>
       <c r="BC10" s="361" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD10" s="362"/>
       <c r="BE10" s="361">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF10" s="362"/>
       <c r="BG10" s="46" t="str">
@@ -40841,9 +40923,13 @@
         <v>20</v>
       </c>
       <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
+      <c r="AG11" s="59">
+        <v>25</v>
+      </c>
       <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
+      <c r="AI11" s="59">
+        <v>25</v>
+      </c>
       <c r="AJ11" s="59"/>
       <c r="AK11" s="59"/>
       <c r="AL11" s="59"/>
@@ -40865,12 +40951,12 @@
       <c r="BB11" s="59"/>
       <c r="BC11" s="375" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD11" s="376"/>
       <c r="BE11" s="375">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF11" s="376"/>
       <c r="BG11" s="46" t="str">
@@ -40918,9 +41004,13 @@
         <v>20</v>
       </c>
       <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
+      <c r="AG12" s="58">
+        <v>25</v>
+      </c>
       <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
+      <c r="AI12" s="58">
+        <v>25</v>
+      </c>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="58"/>
       <c r="AL12" s="58"/>
@@ -40942,12 +41032,12 @@
       <c r="BB12" s="58"/>
       <c r="BC12" s="361" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD12" s="362"/>
       <c r="BE12" s="361">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF12" s="362"/>
       <c r="BG12" s="46" t="str">
@@ -40995,9 +41085,13 @@
         <v>20</v>
       </c>
       <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
+      <c r="AG13" s="59">
+        <v>0</v>
+      </c>
       <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
+      <c r="AI13" s="59">
+        <v>0</v>
+      </c>
       <c r="AJ13" s="59"/>
       <c r="AK13" s="59"/>
       <c r="AL13" s="59"/>
@@ -41076,7 +41170,9 @@
         <v>25</v>
       </c>
       <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
+      <c r="AI14" s="58">
+        <v>25</v>
+      </c>
       <c r="AJ14" s="58"/>
       <c r="AK14" s="58"/>
       <c r="AL14" s="58"/>
@@ -41098,12 +41194,12 @@
       <c r="BB14" s="58"/>
       <c r="BC14" s="361" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD14" s="362"/>
       <c r="BE14" s="361">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF14" s="362"/>
       <c r="BG14" s="46" t="str">
@@ -41151,9 +41247,13 @@
         <v>20</v>
       </c>
       <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
+      <c r="AG15" s="59">
+        <v>20</v>
+      </c>
       <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
+      <c r="AI15" s="59">
+        <v>25</v>
+      </c>
       <c r="AJ15" s="59"/>
       <c r="AK15" s="59"/>
       <c r="AL15" s="59"/>
@@ -41175,12 +41275,12 @@
       <c r="BB15" s="59"/>
       <c r="BC15" s="375" t="str">
         <f t="shared" si="0"/>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD15" s="376"/>
       <c r="BE15" s="375">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="BF15" s="376"/>
       <c r="BG15" s="46" t="str">
@@ -41228,9 +41328,13 @@
         <v>20</v>
       </c>
       <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
+      <c r="AG16" s="58">
+        <v>0</v>
+      </c>
       <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
+      <c r="AI16" s="58">
+        <v>0</v>
+      </c>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="58"/>
       <c r="AL16" s="58"/>
@@ -41309,7 +41413,9 @@
         <v>25</v>
       </c>
       <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
+      <c r="AI17" s="59">
+        <v>25</v>
+      </c>
       <c r="AJ17" s="59"/>
       <c r="AK17" s="59"/>
       <c r="AL17" s="59"/>
@@ -41331,12 +41437,12 @@
       <c r="BB17" s="59"/>
       <c r="BC17" s="375" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD17" s="376"/>
       <c r="BE17" s="375">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF17" s="376"/>
       <c r="BG17" s="46" t="str">
@@ -41388,7 +41494,9 @@
         <v>25</v>
       </c>
       <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
+      <c r="AI18" s="58">
+        <v>25</v>
+      </c>
       <c r="AJ18" s="58"/>
       <c r="AK18" s="58"/>
       <c r="AL18" s="58"/>
@@ -41410,12 +41518,12 @@
       <c r="BB18" s="58"/>
       <c r="BC18" s="361" t="str">
         <f t="shared" si="0"/>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="BD18" s="362"/>
       <c r="BE18" s="361">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BF18" s="362"/>
       <c r="BG18" s="46" t="str">
@@ -49414,13 +49522,13 @@
       <c r="AI11" s="397"/>
       <c r="AJ11" s="397" t="str">
         <f>IF(B11="","",EVID_ANV!BC13)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK11" s="397"/>
       <c r="AL11" s="397"/>
       <c r="AM11" s="397">
         <f>IF(B11="","",EVID_ANV!BE13)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN11" s="397"/>
       <c r="AO11" s="397"/>
@@ -49438,12 +49546,12 @@
       <c r="AU11" s="397"/>
       <c r="AV11" s="397">
         <f>TRUNC(AM11+AS11,1)</f>
-        <v>60.6</v>
+        <v>85.6</v>
       </c>
       <c r="AW11" s="397"/>
       <c r="AX11" s="395">
         <f>IF(B11="","",IF(AND(TRUNC(AV11/10,1)&gt;0,TRUNC(AV11/10,1)&lt;6),5, IF(  TRUNC(AV11/10,1)&gt;=6,TRUNC(AV11/10,1),IF(AD11&gt;=1,5,  "")) ))</f>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AY11" s="396"/>
       <c r="AZ11" s="162"/>
@@ -49506,13 +49614,13 @@
       <c r="AI12" s="161"/>
       <c r="AJ12" s="160" t="str">
         <f>IF(B12="","",EVID_ANV!BC14)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK12" s="392"/>
       <c r="AL12" s="161"/>
       <c r="AM12" s="160">
         <f>IF(B12="","",EVID_ANV!BE14)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN12" s="392"/>
       <c r="AO12" s="161"/>
@@ -49530,12 +49638,12 @@
       <c r="AU12" s="161"/>
       <c r="AV12" s="160">
         <f>TRUNC(AM12+AS12,1)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW12" s="161"/>
       <c r="AX12" s="393">
         <f t="shared" ref="AX12:AX35" si="0">IF(B12="","",IF(AND(TRUNC(AV12/10,1)&gt;0,TRUNC(AV12/10,1)&lt;6),5, IF(  TRUNC(AV12/10,1)&gt;=6,TRUNC(AV12/10,1),IF(AD12&gt;=1,5,  ""))    ))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY12" s="394"/>
       <c r="AZ12" s="160"/>
@@ -49599,13 +49707,13 @@
       <c r="AI13" s="163"/>
       <c r="AJ13" s="162" t="str">
         <f>IF(B13="","",EVID_ANV!BC15)</f>
-        <v>1 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="AK13" s="391"/>
       <c r="AL13" s="163"/>
       <c r="AM13" s="162">
         <f>IF(B13="","",EVID_ANV!BE15)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AN13" s="391"/>
       <c r="AO13" s="163"/>
@@ -49623,7 +49731,7 @@
       <c r="AU13" s="163"/>
       <c r="AV13" s="162">
         <f t="shared" ref="AV13:AV18" si="2">TRUNC(AM13+AS13,1)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AW13" s="163"/>
       <c r="AX13" s="395">
@@ -49691,13 +49799,13 @@
       <c r="AI14" s="161"/>
       <c r="AJ14" s="160" t="str">
         <f>IF(B14="","",EVID_ANV!BC16)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK14" s="392"/>
       <c r="AL14" s="161"/>
       <c r="AM14" s="160">
         <f>IF(B14="","",EVID_ANV!BE16)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN14" s="392"/>
       <c r="AO14" s="161"/>
@@ -49715,12 +49823,12 @@
       <c r="AU14" s="161"/>
       <c r="AV14" s="160">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW14" s="161"/>
       <c r="AX14" s="393">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY14" s="394"/>
       <c r="AZ14" s="160"/>
@@ -49783,13 +49891,13 @@
       <c r="AI15" s="163"/>
       <c r="AJ15" s="162" t="str">
         <f>IF(B15="","",EVID_ANV!BC17)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK15" s="391"/>
       <c r="AL15" s="163"/>
       <c r="AM15" s="162">
         <f>IF(B15="","",EVID_ANV!BE17)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN15" s="391"/>
       <c r="AO15" s="163"/>
@@ -49807,12 +49915,12 @@
       <c r="AU15" s="163"/>
       <c r="AV15" s="162">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW15" s="163"/>
       <c r="AX15" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY15" s="396"/>
       <c r="AZ15" s="162"/>
@@ -49967,13 +50075,13 @@
       <c r="AI17" s="163"/>
       <c r="AJ17" s="162" t="str">
         <f>IF(B17="","",EVID_ANV!BC19)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK17" s="391"/>
       <c r="AL17" s="163"/>
       <c r="AM17" s="162">
         <f>IF(B17="","",EVID_ANV!BE19)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN17" s="391"/>
       <c r="AO17" s="163"/>
@@ -49991,12 +50099,12 @@
       <c r="AU17" s="163"/>
       <c r="AV17" s="162">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AW17" s="163"/>
       <c r="AX17" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY17" s="396"/>
       <c r="AZ17" s="162"/>
@@ -50059,13 +50167,13 @@
       <c r="AI18" s="161"/>
       <c r="AJ18" s="160" t="str">
         <f>IF(B18="","",EVID_ANV!BC20)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK18" s="392"/>
       <c r="AL18" s="161"/>
       <c r="AM18" s="160">
         <f>IF(B18="","",EVID_ANV!BE20)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN18" s="392"/>
       <c r="AO18" s="161"/>
@@ -50083,12 +50191,12 @@
       <c r="AU18" s="161"/>
       <c r="AV18" s="160">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW18" s="161"/>
       <c r="AX18" s="393">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY18" s="394"/>
       <c r="AZ18" s="160"/>
@@ -50335,13 +50443,13 @@
       <c r="AI21" s="163"/>
       <c r="AJ21" s="162" t="str">
         <f>IF(B21="","",EVID_ANV!BC23)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK21" s="391"/>
       <c r="AL21" s="163"/>
       <c r="AM21" s="162">
         <f>IF(B21="","",EVID_ANV!BE23)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN21" s="391"/>
       <c r="AO21" s="163"/>
@@ -50359,12 +50467,12 @@
       <c r="AU21" s="163"/>
       <c r="AV21" s="162">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW21" s="163"/>
       <c r="AX21" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY21" s="396"/>
       <c r="AZ21" s="162"/>
@@ -50427,13 +50535,13 @@
       <c r="AI22" s="161"/>
       <c r="AJ22" s="160" t="str">
         <f>IF(B22="","",EVID_ANV!BC24)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK22" s="392"/>
       <c r="AL22" s="161"/>
       <c r="AM22" s="160">
         <f>IF(B22="","",EVID_ANV!BE24)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN22" s="392"/>
       <c r="AO22" s="161"/>
@@ -50451,12 +50559,12 @@
       <c r="AU22" s="161"/>
       <c r="AV22" s="160">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW22" s="161"/>
       <c r="AX22" s="393">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY22" s="394"/>
       <c r="AZ22" s="160"/>
@@ -50519,13 +50627,13 @@
       <c r="AI23" s="163"/>
       <c r="AJ23" s="162" t="str">
         <f>IF(B23="","",EVID_ANV!BC25)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK23" s="391"/>
       <c r="AL23" s="163"/>
       <c r="AM23" s="162">
         <f>IF(B23="","",EVID_ANV!BE25)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN23" s="391"/>
       <c r="AO23" s="163"/>
@@ -50543,12 +50651,12 @@
       <c r="AU23" s="163"/>
       <c r="AV23" s="162">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW23" s="163"/>
       <c r="AX23" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY23" s="396"/>
       <c r="AZ23" s="162"/>
@@ -50887,13 +50995,13 @@
       <c r="AI27" s="163"/>
       <c r="AJ27" s="162" t="str">
         <f>IF(B27="","",EVID_ANV!BC29)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK27" s="391"/>
       <c r="AL27" s="163"/>
       <c r="AM27" s="162">
         <f>IF(B27="","",EVID_ANV!BE29)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN27" s="391"/>
       <c r="AO27" s="163"/>
@@ -50911,12 +51019,12 @@
       <c r="AU27" s="163"/>
       <c r="AV27" s="162">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW27" s="163"/>
       <c r="AX27" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY27" s="396"/>
       <c r="AZ27" s="162"/>
@@ -50979,13 +51087,13 @@
       <c r="AI28" s="161"/>
       <c r="AJ28" s="160" t="str">
         <f>IF(B28="","",EVID_ANV!BC30)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK28" s="392"/>
       <c r="AL28" s="161"/>
       <c r="AM28" s="160">
         <f>IF(B28="","",EVID_ANV!BE30)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN28" s="392"/>
       <c r="AO28" s="161"/>
@@ -51003,12 +51111,12 @@
       <c r="AU28" s="161"/>
       <c r="AV28" s="160">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW28" s="161"/>
       <c r="AX28" s="393">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY28" s="394"/>
       <c r="AZ28" s="160"/>
@@ -51071,13 +51179,13 @@
       <c r="AI29" s="163"/>
       <c r="AJ29" s="162" t="str">
         <f>IF(B29="","",EVID_ANV!BC31)</f>
-        <v>1 / 3</v>
+        <v>2 / 3</v>
       </c>
       <c r="AK29" s="391"/>
       <c r="AL29" s="163"/>
       <c r="AM29" s="162">
         <f>IF(B29="","",EVID_ANV!BE31)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AN29" s="391"/>
       <c r="AO29" s="163"/>
@@ -51095,7 +51203,7 @@
       <c r="AU29" s="163"/>
       <c r="AV29" s="162">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AW29" s="163"/>
       <c r="AX29" s="395">
@@ -51163,13 +51271,13 @@
       <c r="AI30" s="161"/>
       <c r="AJ30" s="160" t="str">
         <f>IF(B30="","",EVID_ANV!BC32)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK30" s="392"/>
       <c r="AL30" s="161"/>
       <c r="AM30" s="160">
         <f>IF(B30="","",EVID_ANV!BE32)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN30" s="392"/>
       <c r="AO30" s="161"/>
@@ -51187,12 +51295,12 @@
       <c r="AU30" s="161"/>
       <c r="AV30" s="160">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW30" s="161"/>
       <c r="AX30" s="393">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY30" s="394"/>
       <c r="AZ30" s="160"/>
@@ -51255,13 +51363,13 @@
       <c r="AI31" s="163"/>
       <c r="AJ31" s="162" t="str">
         <f>IF(B31="","",EVID_ANV!BC33)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK31" s="391"/>
       <c r="AL31" s="163"/>
       <c r="AM31" s="162">
         <f>IF(B31="","",EVID_ANV!BE33)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN31" s="391"/>
       <c r="AO31" s="163"/>
@@ -51279,12 +51387,12 @@
       <c r="AU31" s="163"/>
       <c r="AV31" s="162">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW31" s="163"/>
       <c r="AX31" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY31" s="396"/>
       <c r="AZ31" s="162"/>
@@ -51347,13 +51455,13 @@
       <c r="AI32" s="161"/>
       <c r="AJ32" s="160" t="str">
         <f>IF(B32="","",EVID_ANV!BC34)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK32" s="392"/>
       <c r="AL32" s="161"/>
       <c r="AM32" s="160">
         <f>IF(B32="","",EVID_ANV!BE34)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN32" s="392"/>
       <c r="AO32" s="161"/>
@@ -51371,12 +51479,12 @@
       <c r="AU32" s="161"/>
       <c r="AV32" s="160">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW32" s="161"/>
       <c r="AX32" s="393">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY32" s="394"/>
       <c r="AZ32" s="160"/>
@@ -51439,13 +51547,13 @@
       <c r="AI33" s="163"/>
       <c r="AJ33" s="162" t="str">
         <f>IF(B33="","",EVID_ANV!BC35)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK33" s="391"/>
       <c r="AL33" s="163"/>
       <c r="AM33" s="162">
         <f>IF(B33="","",EVID_ANV!BE35)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN33" s="391"/>
       <c r="AO33" s="163"/>
@@ -51463,12 +51571,12 @@
       <c r="AU33" s="163"/>
       <c r="AV33" s="162">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW33" s="163"/>
       <c r="AX33" s="395">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY33" s="396"/>
       <c r="AZ33" s="162"/>
@@ -59144,13 +59252,13 @@
       <c r="AI4" s="272"/>
       <c r="AJ4" s="272" t="str">
         <f>IF(B4="","",EVID_REV!BC6)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK4" s="272"/>
       <c r="AL4" s="272"/>
       <c r="AM4" s="272">
         <f>IF(B4="","",EVID_REV!BE6)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN4" s="272"/>
       <c r="AO4" s="272"/>
@@ -59168,12 +59276,12 @@
       <c r="AU4" s="272"/>
       <c r="AV4" s="272">
         <f>IF(B4="","",TRUNC(SUM(AM4,AS4),1))</f>
-        <v>40.700000000000003</v>
+        <v>90.7</v>
       </c>
       <c r="AW4" s="272"/>
       <c r="AX4" s="474">
         <f>IF(B4="","",IF(AND(TRUNC(AV4/10,1)&gt;0,TRUNC(AV4/10,1)&lt;6),5, IF(  TRUNC(AV4/10,1)&gt;=6,TRUNC(AV4/10,1),IF(AD4&gt;=1,5,  ""))  ))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY4" s="470"/>
       <c r="AZ4" s="270"/>
@@ -59236,13 +59344,13 @@
       <c r="AI5" s="269"/>
       <c r="AJ5" s="268" t="str">
         <f>IF(B5="","",EVID_REV!BC7)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK5" s="471"/>
       <c r="AL5" s="269"/>
       <c r="AM5" s="268">
         <f>IF(B5="","",EVID_REV!BE7)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN5" s="471"/>
       <c r="AO5" s="269"/>
@@ -59260,12 +59368,12 @@
       <c r="AU5" s="269"/>
       <c r="AV5" s="268">
         <f t="shared" ref="AV5:AV28" si="0">IF(B5="","",TRUNC(SUM(AM5,AS5),1))</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW5" s="269"/>
       <c r="AX5" s="472">
         <f t="shared" ref="AX5:AX28" si="1">IF(B5="","",IF(AND(TRUNC(AV5/10,1)&gt;0,TRUNC(AV5/10,1)&lt;6),5, IF(  TRUNC(AV5/10,1)&gt;=6,TRUNC(AV5/10,1),IF(AD5&gt;=1,5,  ""))  ))</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY5" s="473"/>
       <c r="AZ5" s="268"/>
@@ -59512,13 +59620,13 @@
       <c r="AI8" s="271"/>
       <c r="AJ8" s="270" t="str">
         <f>IF(B8="","",EVID_REV!BC10)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK8" s="439"/>
       <c r="AL8" s="271"/>
       <c r="AM8" s="270">
         <f>IF(B8="","",EVID_REV!BE10)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN8" s="439"/>
       <c r="AO8" s="271"/>
@@ -59536,12 +59644,12 @@
       <c r="AU8" s="271"/>
       <c r="AV8" s="270">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW8" s="271"/>
       <c r="AX8" s="469">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY8" s="470"/>
       <c r="AZ8" s="270"/>
@@ -59604,13 +59712,13 @@
       <c r="AI9" s="269"/>
       <c r="AJ9" s="268" t="str">
         <f>IF(B9="","",EVID_REV!BC11)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK9" s="471"/>
       <c r="AL9" s="269"/>
       <c r="AM9" s="268">
         <f>IF(B9="","",EVID_REV!BE11)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN9" s="471"/>
       <c r="AO9" s="269"/>
@@ -59628,12 +59736,12 @@
       <c r="AU9" s="269"/>
       <c r="AV9" s="268">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW9" s="269"/>
       <c r="AX9" s="472">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY9" s="473"/>
       <c r="AZ9" s="268"/>
@@ -59696,13 +59804,13 @@
       <c r="AI10" s="271"/>
       <c r="AJ10" s="270" t="str">
         <f>IF(B10="","",EVID_REV!BC12)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK10" s="439"/>
       <c r="AL10" s="271"/>
       <c r="AM10" s="270">
         <f>IF(B10="","",EVID_REV!BE12)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AN10" s="439"/>
       <c r="AO10" s="271"/>
@@ -59720,12 +59828,12 @@
       <c r="AU10" s="271"/>
       <c r="AV10" s="270">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AW10" s="271"/>
       <c r="AX10" s="469">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY10" s="470"/>
       <c r="AZ10" s="270"/>
@@ -59880,13 +59988,13 @@
       <c r="AI12" s="271"/>
       <c r="AJ12" s="270" t="str">
         <f>IF(B12="","",EVID_REV!BC14)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK12" s="439"/>
       <c r="AL12" s="271"/>
       <c r="AM12" s="270">
         <f>IF(B12="","",EVID_REV!BE14)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN12" s="439"/>
       <c r="AO12" s="271"/>
@@ -59904,12 +60012,12 @@
       <c r="AU12" s="271"/>
       <c r="AV12" s="270">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW12" s="271"/>
       <c r="AX12" s="469">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY12" s="470"/>
       <c r="AZ12" s="270"/>
@@ -59972,13 +60080,13 @@
       <c r="AI13" s="269"/>
       <c r="AJ13" s="268" t="str">
         <f>IF(B13="","",EVID_REV!BC15)</f>
-        <v>1 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK13" s="471"/>
       <c r="AL13" s="269"/>
       <c r="AM13" s="268">
         <f>IF(B13="","",EVID_REV!BE15)</f>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AN13" s="471"/>
       <c r="AO13" s="269"/>
@@ -59996,12 +60104,12 @@
       <c r="AU13" s="269"/>
       <c r="AV13" s="268">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AW13" s="269"/>
       <c r="AX13" s="472">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY13" s="473"/>
       <c r="AZ13" s="268"/>
@@ -60156,13 +60264,13 @@
       <c r="AI15" s="269"/>
       <c r="AJ15" s="268" t="str">
         <f>IF(B15="","",EVID_REV!BC17)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK15" s="471"/>
       <c r="AL15" s="269"/>
       <c r="AM15" s="268">
         <f>IF(B15="","",EVID_REV!BE17)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN15" s="471"/>
       <c r="AO15" s="269"/>
@@ -60180,12 +60288,12 @@
       <c r="AU15" s="269"/>
       <c r="AV15" s="268">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW15" s="269"/>
       <c r="AX15" s="472">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY15" s="473"/>
       <c r="AZ15" s="268"/>
@@ -60248,13 +60356,13 @@
       <c r="AI16" s="271"/>
       <c r="AJ16" s="270" t="str">
         <f>IF(B16="","",EVID_REV!BC18)</f>
-        <v>2 / 3</v>
+        <v>3 / 3</v>
       </c>
       <c r="AK16" s="439"/>
       <c r="AL16" s="271"/>
       <c r="AM16" s="270">
         <f>IF(B16="","",EVID_REV!BE18)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AN16" s="439"/>
       <c r="AO16" s="271"/>
@@ -60272,12 +60380,12 @@
       <c r="AU16" s="271"/>
       <c r="AV16" s="270">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AW16" s="271"/>
       <c r="AX16" s="469">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY16" s="470"/>
       <c r="AZ16" s="270"/>
@@ -61612,7 +61720,7 @@
       <c r="H32" s="459"/>
       <c r="I32" s="457">
         <f>COUNTIFS(CALIF_ANV!AX11:AX35,"&gt;=6",CALIF_ANV!AX11:AX35,"&lt;=10")+COUNTIFS(AX4:AY28,"&gt;=6",AX4:AY28,"&lt;=10")</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J32" s="458"/>
       <c r="K32" s="458"/>
@@ -61620,7 +61728,7 @@
       <c r="M32" s="459"/>
       <c r="N32" s="457">
         <f>COUNTIFS(CALIF_ANV!AX11:AX35,"&lt;6")+COUNTIFS(AX4:AX28,"&lt;6")</f>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="O32" s="458"/>
       <c r="P32" s="458"/>
@@ -61680,7 +61788,7 @@
       <c r="H33" s="449"/>
       <c r="I33" s="450" t="str">
         <f>CONCATENATE(BF33," %")</f>
-        <v>15.7 %</v>
+        <v>76.3 %</v>
       </c>
       <c r="J33" s="451"/>
       <c r="K33" s="451"/>
@@ -61688,7 +61796,7 @@
       <c r="M33" s="452"/>
       <c r="N33" s="450" t="str">
         <f>CONCATENATE(BG33," %")</f>
-        <v>84.2 %</v>
+        <v>23.6 %</v>
       </c>
       <c r="O33" s="451"/>
       <c r="P33" s="451"/>
@@ -61736,11 +61844,11 @@
       <c r="BE33" s="446"/>
       <c r="BF33">
         <f>TRUNC(I$32/(A32-S32)*100,1)</f>
-        <v>15.7</v>
+        <v>76.3</v>
       </c>
       <c r="BG33">
         <f>TRUNC(N$32/(A32-S32)*100,1)</f>
-        <v>84.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.2">
